--- a/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>91195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76242</v>
+        <v>76957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108496</v>
+        <v>110662</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1716214805852865</v>
+        <v>0.1716214805852866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1434817407206946</v>
+        <v>0.14482672601528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2041821233850757</v>
+        <v>0.208257538834905</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -762,19 +762,19 @@
         <v>149519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133533</v>
+        <v>133937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167122</v>
+        <v>166653</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1928885327117458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1722659691498248</v>
+        <v>0.1727867963341157</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2155971775374127</v>
+        <v>0.2149928266055096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -783,19 +783,19 @@
         <v>240714</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216844</v>
+        <v>216686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262903</v>
+        <v>265623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.184239139620597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1659698767348864</v>
+        <v>0.1658484401613154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2012229892192911</v>
+        <v>0.2033041446927919</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>233961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215044</v>
+        <v>214401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259602</v>
+        <v>258890</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.440298311687286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4046966426673228</v>
+        <v>0.4034876165590133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4885528031911797</v>
+        <v>0.4872117605084365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -833,19 +833,19 @@
         <v>385383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365401</v>
+        <v>363299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>408175</v>
+        <v>405809</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4971673855947684</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4713886472399459</v>
+        <v>0.4686769428764595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5265703704981295</v>
+        <v>0.523518278809138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>952</v>
@@ -854,19 +854,19 @@
         <v>619345</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>588601</v>
+        <v>585864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>649662</v>
+        <v>648088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4740385113140008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4505076944459698</v>
+        <v>0.4484128519065079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4972430747649368</v>
+        <v>0.4960383744302495</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>206214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>183121</v>
+        <v>185806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>227287</v>
+        <v>227898</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3880802077274275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3446197893760315</v>
+        <v>0.3496741345194191</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4277386141824546</v>
+        <v>0.4288867048391229</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>415</v>
@@ -904,19 +904,19 @@
         <v>240256</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>221856</v>
+        <v>221418</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>261466</v>
+        <v>260448</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3099440816934859</v>
+        <v>0.3099440816934858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2862073759458382</v>
+        <v>0.2856425586002319</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3373072759365665</v>
+        <v>0.3359933119481572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>659</v>
@@ -925,19 +925,19 @@
         <v>446470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>416084</v>
+        <v>417169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>478043</v>
+        <v>478024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3417223490654022</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3184651488813673</v>
+        <v>0.3192960813506913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3658882661929113</v>
+        <v>0.3658736181266814</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>335762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>299338</v>
+        <v>297894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375896</v>
+        <v>376683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1597953820770702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.142460506914674</v>
+        <v>0.141773674072073</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.178895961950004</v>
+        <v>0.1792708148686604</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>390</v>
@@ -1050,19 +1050,19 @@
         <v>329994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296964</v>
+        <v>297012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363695</v>
+        <v>362193</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1582427429661828</v>
+        <v>0.1582427429661829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1424039928400142</v>
+        <v>0.14242719381981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1744035233945879</v>
+        <v>0.1736834111182616</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -1071,19 +1071,19 @@
         <v>665755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>611457</v>
+        <v>616742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715297</v>
+        <v>714915</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1590219986992507</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1460522552985676</v>
+        <v>0.1473147015153338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1708556236960812</v>
+        <v>0.1707642925299116</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>971185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>917301</v>
+        <v>915180</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1020956</v>
+        <v>1023336</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4622053590007271</v>
+        <v>0.462205359000727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4365612260915753</v>
+        <v>0.4355519371696794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4858924837191603</v>
+        <v>0.4870251280649655</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1280</v>
@@ -1121,19 +1121,19 @@
         <v>947194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>904833</v>
+        <v>907020</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>993260</v>
+        <v>990772</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4542104852520715</v>
+        <v>0.4542104852520716</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4338971294775275</v>
+        <v>0.4349458155768788</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4763005474813258</v>
+        <v>0.4751079296593475</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2173</v>
@@ -1142,19 +1142,19 @@
         <v>1918378</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1855613</v>
+        <v>1851197</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1985464</v>
+        <v>1986966</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4582230411384377</v>
+        <v>0.4582230411384378</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4432309935269245</v>
+        <v>0.4421760406307464</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4742471387293082</v>
+        <v>0.474605786045587</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>794251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>742029</v>
+        <v>743813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>844075</v>
+        <v>851532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3779992589222028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.353145845861834</v>
+        <v>0.3539950067993386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4017115575112874</v>
+        <v>0.4052603572406237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1158</v>
@@ -1192,19 +1192,19 @@
         <v>808176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>768102</v>
+        <v>766725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>855758</v>
+        <v>851082</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3875467717817456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3683299580484212</v>
+        <v>0.3676695838129108</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4103642298169631</v>
+        <v>0.4081215618227554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1893</v>
@@ -1213,19 +1213,19 @@
         <v>1602427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1540626</v>
+        <v>1539311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1668557</v>
+        <v>1665106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3827549601623116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3679932178618542</v>
+        <v>0.367679242498636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3985509295922113</v>
+        <v>0.39772647966751</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>97508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77143</v>
+        <v>78424</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117864</v>
+        <v>119771</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1404523830454528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1111190359924303</v>
+        <v>0.1129641110441755</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1697741623898256</v>
+        <v>0.1725207149605097</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -1338,19 +1338,19 @@
         <v>94488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79997</v>
+        <v>78496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>112044</v>
+        <v>112329</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1313036145906699</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1111674904272243</v>
+        <v>0.1090814206392061</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1557003898641528</v>
+        <v>0.1560970648148695</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>207</v>
@@ -1359,19 +1359,19 @@
         <v>191995</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>168516</v>
+        <v>168174</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221770</v>
+        <v>221209</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1357959097544061</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1191895423011359</v>
+        <v>0.1189476582225253</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1568550625802018</v>
+        <v>0.1564584392209133</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>336758</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>306320</v>
+        <v>308974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364560</v>
+        <v>366654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4850751013722963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4412310537033032</v>
+        <v>0.4450546553651473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5251211290778591</v>
+        <v>0.5281376031135645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>477</v>
@@ -1409,19 +1409,19 @@
         <v>344517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>319575</v>
+        <v>319136</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>365916</v>
+        <v>367338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.478754872448724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4440946069787324</v>
+        <v>0.4434843254586164</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5084908812443638</v>
+        <v>0.5104681522508742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>809</v>
@@ -1430,19 +1430,19 @@
         <v>681276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>646439</v>
+        <v>645226</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>717422</v>
+        <v>718728</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4818582774553538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4572184218340508</v>
+        <v>0.4563604216719293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5074243161292494</v>
+        <v>0.5083478866036301</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>259973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>232974</v>
+        <v>232934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290453</v>
+        <v>288587</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3744725155822508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3355814278787559</v>
+        <v>0.3355236022828926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4183755811665825</v>
+        <v>0.4156882670962083</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -1480,19 +1480,19 @@
         <v>280606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258960</v>
+        <v>260264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>303788</v>
+        <v>307010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.389941512960606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3598612356364842</v>
+        <v>0.3616738343384044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4221559948648323</v>
+        <v>0.4266331855961446</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>637</v>
@@ -1501,19 +1501,19 @@
         <v>540580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>504367</v>
+        <v>503633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>576383</v>
+        <v>576499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3823458127902402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3567327701323389</v>
+        <v>0.3562136611095085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4076685252636678</v>
+        <v>0.4077506098179429</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>524464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>483220</v>
+        <v>478110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>573208</v>
+        <v>574814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1576477856447648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1452504634178039</v>
+        <v>0.1437143858825787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1722997946154156</v>
+        <v>0.1727825999214929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>770</v>
@@ -1626,19 +1626,19 @@
         <v>574000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>537440</v>
+        <v>533142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>614118</v>
+        <v>612153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1603293279889373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1501172716493527</v>
+        <v>0.1489167192665692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1715351088140672</v>
+        <v>0.1709862050281741</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1258</v>
@@ -1647,19 +1647,19 @@
         <v>1098464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1036902</v>
+        <v>1032982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1163254</v>
+        <v>1162689</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1590377322569367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1501247668463504</v>
+        <v>0.1495571920554542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1684182064494207</v>
+        <v>0.1683363643739074</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>1541904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1475675</v>
+        <v>1475558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1600960</v>
+        <v>1609047</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4634787509424334</v>
+        <v>0.4634787509424333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4435710348620018</v>
+        <v>0.4435360036703494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4812304492970251</v>
+        <v>0.4836612007438819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2417</v>
@@ -1697,19 +1697,19 @@
         <v>1677094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1623232</v>
+        <v>1624547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1727324</v>
+        <v>1733318</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4684448198872115</v>
+        <v>0.4684448198872114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.453399997755837</v>
+        <v>0.453767458689784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.482474875537324</v>
+        <v>0.4841492462081447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3934</v>
@@ -1718,19 +1718,19 @@
         <v>3218998</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3129585</v>
+        <v>3132862</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3299993</v>
+        <v>3300187</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4660528556253623</v>
+        <v>0.4660528556253622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4531074459814036</v>
+        <v>0.4535818683887948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4777795119439168</v>
+        <v>0.4778074731908195</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>1260439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1201997</v>
+        <v>1196824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1326750</v>
+        <v>1325324</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3788734634128019</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3613066433810009</v>
+        <v>0.3597516541104648</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3988059825331409</v>
+        <v>0.3983772617947996</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1962</v>
@@ -1768,19 +1768,19 @@
         <v>1329038</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1277222</v>
+        <v>1278004</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1382705</v>
+        <v>1379579</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3712258521238512</v>
+        <v>0.3712258521238513</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3567526811215592</v>
+        <v>0.3569712228359961</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3862161677561917</v>
+        <v>0.3853431409064655</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3189</v>
@@ -1789,19 +1789,19 @@
         <v>2589476</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2513896</v>
+        <v>2516677</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2669008</v>
+        <v>2674840</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3749094121177012</v>
+        <v>0.3749094121177011</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3639667216105935</v>
+        <v>0.364369463206895</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.386424254709498</v>
+        <v>0.3872685228032342</v>
       </c>
     </row>
     <row r="19">
